--- a/References_20220408.xlsx
+++ b/References_20220408.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwilmart/Box Sync/Github_misc/meetings_presentations/human_tear_references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46FFEC2-219D-B049-8ADA-867298AE10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581BFBB-069D-9544-9160-8743DDCEFEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1860" windowWidth="48140" windowHeight="26580" xr2:uid="{27EE6ECD-9EC6-1148-9D45-E43E6390C9F3}"/>
+    <workbookView xWindow="1640" yWindow="7900" windowWidth="48140" windowHeight="26580" xr2:uid="{27EE6ECD-9EC6-1148-9D45-E43E6390C9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="80_papers" sheetId="1" r:id="rId1"/>
     <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'80_papers'!$C$7:$BB$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'80_papers'!$A$7:$BC$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1110">
   <si>
     <t>Authors</t>
   </si>
@@ -3365,6 +3365,9 @@
   </si>
   <si>
     <t>Number of proteins identified and compared in the study</t>
+  </si>
+  <si>
+    <t>Google Scholar Citations</t>
   </si>
 </sst>
 </file>
@@ -3447,7 +3450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3460,6 +3463,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3775,45 +3781,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7F70BD-C5D1-8C43-9A57-26B1120BC6C2}">
-  <dimension ref="A1:BB89"/>
+  <dimension ref="A1:BC89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="22" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" customWidth="1"/>
+    <col min="19" max="23" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>519</v>
       </c>
@@ -3839,52 +3848,55 @@
         <v>231</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3910,50 +3922,53 @@
         <f>HYPERLINK(CONCATENATE("https://pubmed.ncbi.nlm.nih.gov/", G8, "/"),G8)</f>
         <v>27256639</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="12">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
         <v>280</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>316</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2016</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>387</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>412</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>413</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>407</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>408</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>578</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>410</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>409</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>511</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>411</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3979,50 +3994,53 @@
         <f t="shared" ref="H9:H39" si="0">HYPERLINK(CONCATENATE("https://pubmed.ncbi.nlm.nih.gov/", G9, "/"),G9)</f>
         <v>18385783</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="12">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
         <v>265</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>303</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2008</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>370</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>412</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>424</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>415</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>421</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>417</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>419</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>418</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>420</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>422</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4048,50 +4066,53 @@
         <f t="shared" si="0"/>
         <v>21396361</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="12">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
         <v>265</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>303</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2011</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>365</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>412</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>424</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>425</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>430</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>416</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>428</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>427</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>426</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>429</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4117,50 +4138,53 @@
         <f t="shared" si="0"/>
         <v>30312344</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="12">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>252</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>307</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2018</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>374</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>468</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>439</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>432</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>437</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>579</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>435</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>434</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>433</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>436</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4186,50 +4210,53 @@
         <f t="shared" si="0"/>
         <v>28122643</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="12">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
         <v>252</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>292</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2017</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>347</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>468</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>440</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>432</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>437</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>579</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>435</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>434</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>433</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>436</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4255,50 +4282,53 @@
         <f t="shared" si="0"/>
         <v>25946035</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="12">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
         <v>255</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>295</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2015</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>350</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>412</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>448</v>
       </c>
-      <c r="O13" t="s">
-        <v>442</v>
-      </c>
       <c r="P13" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q13" t="s">
         <v>443</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>580</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>445</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>441</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>444</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>446</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -4324,30 +4354,30 @@
         <f t="shared" si="0"/>
         <v>29460647</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="12">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
         <v>240</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>285</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2018</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>336</v>
       </c>
-      <c r="M14" t="s">
-        <v>442</v>
-      </c>
       <c r="N14" t="s">
+        <v>442</v>
+      </c>
+      <c r="O14" t="s">
         <v>783</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>832</v>
       </c>
-      <c r="P14" t="s">
-        <v>442</v>
-      </c>
       <c r="Q14" t="s">
         <v>442</v>
       </c>
@@ -4366,8 +4396,11 @@
       <c r="V14" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -4393,50 +4426,53 @@
         <f t="shared" si="0"/>
         <v>23425692</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="12">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
         <v>256</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>290</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2013</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>351</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>412</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>456</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>449</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>450</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>581</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>453</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>451</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>452</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>454</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -4462,50 +4498,53 @@
         <f t="shared" si="0"/>
         <v>21800913</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="12">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
         <v>250</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>291</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2011</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>345</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>460</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>461</v>
       </c>
-      <c r="O16" t="s">
-        <v>442</v>
-      </c>
       <c r="P16" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q16" t="s">
         <v>457</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>582</v>
       </c>
-      <c r="R16" t="s">
-        <v>442</v>
-      </c>
       <c r="S16" t="s">
+        <v>442</v>
+      </c>
+      <c r="T16" t="s">
         <v>458</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>459</v>
       </c>
-      <c r="U16" t="s">
-        <v>442</v>
-      </c>
       <c r="V16" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4531,50 +4570,53 @@
         <f t="shared" si="0"/>
         <v>34095372</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
         <v>245</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>289</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2021</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>341</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>469</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>470</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>462</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>463</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>582</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>466</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>465</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>464</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>467</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>725</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11</v>
       </c>
@@ -4600,50 +4642,53 @@
         <f t="shared" si="0"/>
         <v>18953555</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="12">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
         <v>238</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>283</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2009</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>334</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>471</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>472</v>
       </c>
-      <c r="O18" t="s">
-        <v>442</v>
-      </c>
       <c r="P18" t="s">
         <v>442</v>
       </c>
       <c r="Q18" t="s">
+        <v>442</v>
+      </c>
+      <c r="R18" t="s">
         <v>473</v>
       </c>
-      <c r="R18" t="s">
-        <v>442</v>
-      </c>
       <c r="S18" t="s">
+        <v>442</v>
+      </c>
+      <c r="T18" t="s">
         <v>474</v>
       </c>
-      <c r="T18" t="s">
-        <v>442</v>
-      </c>
       <c r="U18" t="s">
         <v>442</v>
       </c>
       <c r="V18" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -4669,50 +4714,53 @@
         <f t="shared" si="0"/>
         <v>22300579</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="12">
+        <v>112</v>
+      </c>
+      <c r="J19" t="s">
         <v>320</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>321</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2012</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>381</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>482</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>483</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>475</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>478</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>473</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>479</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>476</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>477</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>480</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13</v>
       </c>
@@ -4738,50 +4786,53 @@
         <f t="shared" si="0"/>
         <v>24801511</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="12">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
         <v>319</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>317</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2014</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>388</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>490</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>492</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>484</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>485</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>583</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>487</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>486</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>459</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>488</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14</v>
       </c>
@@ -4807,27 +4858,27 @@
         <f t="shared" si="0"/>
         <v>26605353</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="12">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
         <v>319</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>251</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2014</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>359</v>
       </c>
-      <c r="M21" t="s">
-        <v>442</v>
-      </c>
       <c r="N21" t="s">
+        <v>442</v>
+      </c>
+      <c r="O21" t="s">
         <v>493</v>
       </c>
-      <c r="O21" t="s">
-        <v>442</v>
-      </c>
       <c r="P21" t="s">
         <v>442</v>
       </c>
@@ -4849,8 +4900,11 @@
       <c r="V21" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
@@ -4876,50 +4930,53 @@
         <f t="shared" si="0"/>
         <v>34950038</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>276</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>313</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2021</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>380</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>412</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>500</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>432</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>497</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>584</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>495</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>496</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>494</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>499</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>16</v>
       </c>
@@ -4945,50 +5002,53 @@
         <f t="shared" si="0"/>
         <v>16901338</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="12">
+        <v>443</v>
+      </c>
+      <c r="J23" t="s">
         <v>322</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>302</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2006</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>364</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>506</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>508</v>
       </c>
-      <c r="O23" t="s">
-        <v>442</v>
-      </c>
       <c r="P23" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q23" t="s">
         <v>504</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>580</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>505</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>501</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>503</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>507</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17</v>
       </c>
@@ -5014,53 +5074,56 @@
         <f t="shared" si="0"/>
         <v>30321513</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="12">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
         <v>264</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>301</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2019</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>363</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="O24" t="s">
-        <v>442</v>
-      </c>
       <c r="P24" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q24" t="s">
         <v>509</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>585</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>513</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>510</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>512</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>514</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>516</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="X24" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18</v>
       </c>
@@ -5086,50 +5149,53 @@
         <f t="shared" si="0"/>
         <v>18334958</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="12">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
         <v>242</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>287</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2008</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>338</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>412</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>524</v>
       </c>
-      <c r="O25" t="s">
-        <v>442</v>
-      </c>
       <c r="P25" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q25" t="s">
         <v>520</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>586</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>525</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>526</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>521</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>522</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
@@ -5155,50 +5221,53 @@
         <f t="shared" si="0"/>
         <v>31372408</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="12">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
         <v>239</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>284</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2019</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>335</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>490</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>533</v>
       </c>
-      <c r="O26" t="s">
-        <v>442</v>
-      </c>
       <c r="P26" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" t="s">
         <v>529</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>583</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>531</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>530</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>528</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>532</v>
       </c>
-      <c r="V26" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
@@ -5224,47 +5293,50 @@
         <f t="shared" si="0"/>
         <v>23228955</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="12">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
         <v>261</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>298</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2013</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>357</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>523</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>541</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>534</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>535</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>536</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>537</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>538</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>539</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
@@ -5290,50 +5362,53 @@
         <f t="shared" si="0"/>
         <v>31800960</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="12">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
         <v>244</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>288</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2019</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>340</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>412</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>550</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>543</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>544</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>587</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>545</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>546</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>547</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>548</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
@@ -5359,47 +5434,50 @@
         <f t="shared" si="0"/>
         <v>29042648</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="12">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
         <v>249</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>281</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2017</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>344</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>523</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>557</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>551</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>555</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>553</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>552</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>433</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>554</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
@@ -5425,27 +5503,27 @@
         <f t="shared" si="0"/>
         <v>34742692</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
         <v>263</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>300</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2021</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>360</v>
       </c>
-      <c r="M30" t="s">
-        <v>442</v>
-      </c>
       <c r="N30" t="s">
+        <v>442</v>
+      </c>
+      <c r="O30" t="s">
         <v>558</v>
       </c>
-      <c r="O30" t="s">
-        <v>442</v>
-      </c>
       <c r="P30" t="s">
         <v>442</v>
       </c>
@@ -5467,8 +5545,11 @@
       <c r="V30" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
@@ -5494,50 +5575,53 @@
         <f t="shared" si="0"/>
         <v>22040812</v>
       </c>
-      <c r="I31" t="s">
-        <v>281</v>
+      <c r="I31" s="12">
+        <v>73</v>
       </c>
       <c r="J31" t="s">
         <v>281</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31">
         <v>2012</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>389</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>523</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>565</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>475</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>559</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>560</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>562</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>474</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>561</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>563</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
@@ -5563,50 +5647,53 @@
         <f t="shared" si="0"/>
         <v>28887209</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="12">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
         <v>266</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>301</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2018</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>366</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>412</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>573</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>566</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>571</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>588</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>568</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>567</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>570</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>572</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="X32" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5632,47 +5719,50 @@
         <f t="shared" si="0"/>
         <v>33401599</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="12">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
         <v>259</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>297</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2021</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>355</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>593</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>592</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>574</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>575</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>589</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>577</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>576</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>590</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
@@ -5698,50 +5788,53 @@
         <f t="shared" si="0"/>
         <v>24329893</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="12">
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
         <v>262</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>299</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>2014</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>358</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>412</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>608</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>601</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>602</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>603</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>605</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>604</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>594</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>606</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
@@ -5767,50 +5860,53 @@
         <f t="shared" si="0"/>
         <v>25159733</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="12">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s">
         <v>243</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>250</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>2014</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>369</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>490</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>615</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>432</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>609</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>583</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>612</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>610</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>611</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>613</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
@@ -5836,47 +5932,50 @@
         <f t="shared" si="0"/>
         <v>16335950</v>
       </c>
-      <c r="I36" t="s">
-        <v>243</v>
+      <c r="I36" s="12">
+        <v>160</v>
       </c>
       <c r="J36" t="s">
         <v>243</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36">
         <v>2005</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>339</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>412</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>600</v>
       </c>
-      <c r="O36" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="P36" t="s">
+        <v>442</v>
+      </c>
+      <c r="R36" t="s">
         <v>595</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>597</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>596</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>598</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>599</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
@@ -5902,50 +6001,53 @@
         <f t="shared" si="0"/>
         <v>30069058</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="12">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
         <v>268</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>304</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>2018</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>371</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>523</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>623</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>616</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>619</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>617</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>620</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>618</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>611</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>621</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>31</v>
       </c>
@@ -5971,50 +6073,53 @@
         <f t="shared" si="0"/>
         <v>22561205</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="12">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
         <v>254</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>294</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>2012</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>349</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>523</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>632</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>624</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>625</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>626</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>629</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>627</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>630</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>628</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
@@ -6040,50 +6145,53 @@
         <f t="shared" si="0"/>
         <v>22873942</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="12">
+        <v>53</v>
+      </c>
+      <c r="J39" t="s">
         <v>273</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>310</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>2012</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>377</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>412</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>456</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>566</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>633</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>634</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>453</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>451</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>452</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>635</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>33</v>
       </c>
@@ -6109,53 +6217,56 @@
         <f t="shared" ref="H40:H67" si="1">HYPERLINK(CONCATENATE("https://pubmed.ncbi.nlm.nih.gov/", G40, "/"),G40)</f>
         <v>30104599</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="12">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
         <v>326</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>286</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>2018</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>391</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>648</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>637</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>644</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>638</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>641</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>639</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>640</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>645</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>643</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>34</v>
       </c>
@@ -6181,50 +6292,53 @@
         <f t="shared" si="1"/>
         <v>30976209</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="12">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
         <v>326</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>286</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>2019</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>337</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="N41" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>653</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>646</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>647</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>649</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>650</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>639</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>640</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>652</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>35</v>
       </c>
@@ -6250,50 +6364,53 @@
         <f t="shared" si="1"/>
         <v>21031023</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="12">
+        <v>98</v>
+      </c>
+      <c r="J42" t="s">
         <v>267</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>287</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2010</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>367</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>412</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>662</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>655</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>657</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>656</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>659</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>658</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>521</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>660</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>36</v>
       </c>
@@ -6319,50 +6436,53 @@
         <f t="shared" si="1"/>
         <v>26173177</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="12">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s">
         <v>246</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>290</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>2015</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>342</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>412</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>669</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>663</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>665</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>664</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>667</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>666</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>611</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>668</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>37</v>
       </c>
@@ -6388,50 +6508,53 @@
         <f t="shared" si="1"/>
         <v>27436115</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="12">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
         <v>246</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>290</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>2016</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>368</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>523</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>677</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>670</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>671</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>672</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>673</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>674</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>611</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>676</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -6457,47 +6580,50 @@
         <f t="shared" si="1"/>
         <v>23580065</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="12">
+        <v>75</v>
+      </c>
+      <c r="J45" t="s">
         <v>282</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>318</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>2013</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>390</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>412</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>685</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>678</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>683</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>679</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>680</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>681</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>682</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>39</v>
       </c>
@@ -6523,39 +6649,39 @@
         <f t="shared" si="1"/>
         <v>23357333</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="12">
+        <v>149</v>
+      </c>
+      <c r="J46" t="s">
         <v>271</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>308</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>2013</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>375</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="N46" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>690</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>686</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>687</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>688</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>689</v>
       </c>
-      <c r="S46" t="s">
-        <v>442</v>
-      </c>
       <c r="T46" t="s">
         <v>442</v>
       </c>
@@ -6565,8 +6691,11 @@
       <c r="V46" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W46" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>40</v>
       </c>
@@ -6592,50 +6721,53 @@
         <f t="shared" si="1"/>
         <v>20882555</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="12">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
         <v>277</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>314</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>2010</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>382</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>523</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>700</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>692</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>693</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>694</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>696</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>697</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>695</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>698</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>41</v>
       </c>
@@ -6661,36 +6793,36 @@
         <f t="shared" si="1"/>
         <v>22918641</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="12">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
         <v>272</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>309</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>2012</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>376</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>713</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>701</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>702</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>703</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>704</v>
       </c>
-      <c r="S48" t="s">
-        <v>442</v>
-      </c>
       <c r="T48" t="s">
         <v>442</v>
       </c>
@@ -6700,8 +6832,11 @@
       <c r="V48" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>42</v>
       </c>
@@ -6727,50 +6862,53 @@
         <f t="shared" si="1"/>
         <v>23201116</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="12">
+        <v>93</v>
+      </c>
+      <c r="J49" t="s">
         <v>248</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>324</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>2013</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>353</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>523</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>711</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>705</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>707</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>706</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>709</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>708</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>710</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>712</v>
       </c>
-      <c r="V49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>43</v>
       </c>
@@ -6796,50 +6934,53 @@
         <f t="shared" si="1"/>
         <v>29234088</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="12">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
         <v>248</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>324</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>2017</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>393</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>412</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>721</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>705</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>714</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>715</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>716</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>717</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>718</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>719</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>44</v>
       </c>
@@ -6865,50 +7006,53 @@
         <f t="shared" si="1"/>
         <v>22736608</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="12">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
         <v>278</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>287</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2012</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>384</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>523</v>
       </c>
-      <c r="N51" s="8" t="s">
+      <c r="O51" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>722</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>723</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>725</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>727</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>726</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>611</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>728</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>45</v>
       </c>
@@ -6934,53 +7078,56 @@
         <f t="shared" si="1"/>
         <v>29574764</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="12">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
         <v>253</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>293</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>2018</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>348</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>523</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>738</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>731</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>732</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>733</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>734</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>735</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>630</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>737</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>90</v>
       </c>
-      <c r="W52" s="2" t="s">
+      <c r="X52" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>46</v>
       </c>
@@ -7006,50 +7153,53 @@
         <f t="shared" si="1"/>
         <v>21030416</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="12">
+        <v>109</v>
+      </c>
+      <c r="J53" t="s">
         <v>251</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>243</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>2011</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>383</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>412</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>745</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>739</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>742</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>740</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>741</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>724</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>695</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>743</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>47</v>
       </c>
@@ -7075,47 +7225,50 @@
         <f t="shared" si="1"/>
         <v>25529431</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="12">
+        <v>47</v>
+      </c>
+      <c r="J54" t="s">
         <v>251</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>241</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>2015</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>346</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="O54" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="O54" t="s">
-        <v>442</v>
-      </c>
       <c r="P54" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q54" t="s">
         <v>747</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>748</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>746</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>640</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>749</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>48</v>
       </c>
@@ -7141,50 +7294,53 @@
         <f t="shared" si="1"/>
         <v>26221613</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="12">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
         <v>279</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>315</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>2015</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>385</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>713</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>755</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>475</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>753</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>754</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>756</v>
       </c>
-      <c r="S55" t="s">
-        <v>442</v>
-      </c>
       <c r="T55" t="s">
+        <v>442</v>
+      </c>
+      <c r="U55" t="s">
         <v>713</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>757</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>49</v>
       </c>
@@ -7210,50 +7366,53 @@
         <f t="shared" si="1"/>
         <v>16488965</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="12">
+        <v>154</v>
+      </c>
+      <c r="J56" t="s">
         <v>274</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>311</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>2006</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>378</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>523</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>764</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>758</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>759</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>760</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>762</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>761</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>521</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>763</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50</v>
       </c>
@@ -7279,23 +7438,26 @@
         <f t="shared" si="1"/>
         <v>24286413</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="12">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
         <v>274</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>312</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2013</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>379</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>51</v>
       </c>
@@ -7321,53 +7483,56 @@
         <f t="shared" si="1"/>
         <v>34559185</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="12">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
         <v>269</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>305</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>2021</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>372</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>490</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="O58" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>767</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>768</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>769</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>771</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>770</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>766</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>772</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>519</v>
       </c>
-      <c r="W58" s="2" t="s">
+      <c r="X58" s="2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>52</v>
       </c>
@@ -7393,50 +7558,53 @@
         <f t="shared" si="1"/>
         <v>20150925</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="12">
+        <v>153</v>
+      </c>
+      <c r="J59" t="s">
         <v>270</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>306</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>2010</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>373</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>412</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>782</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>775</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>776</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>777</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>781</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>779</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>778</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>780</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>53</v>
       </c>
@@ -7462,27 +7630,27 @@
         <f t="shared" si="1"/>
         <v>23880526</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="12">
+        <v>142</v>
+      </c>
+      <c r="J60" t="s">
         <v>323</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>290</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>2013</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>361</v>
       </c>
-      <c r="M60" t="s">
-        <v>442</v>
-      </c>
       <c r="N60" t="s">
+        <v>442</v>
+      </c>
+      <c r="O60" t="s">
         <v>784</v>
       </c>
-      <c r="O60" t="s">
-        <v>442</v>
-      </c>
       <c r="P60" t="s">
         <v>442</v>
       </c>
@@ -7504,8 +7672,11 @@
       <c r="V60" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>54</v>
       </c>
@@ -7531,24 +7702,24 @@
         <f t="shared" si="1"/>
         <v>31119796</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="12">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>260</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>2019</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>356</v>
       </c>
-      <c r="M61" t="s">
-        <v>442</v>
-      </c>
       <c r="N61" t="s">
+        <v>442</v>
+      </c>
+      <c r="O61" t="s">
         <v>785</v>
       </c>
-      <c r="O61" t="s">
-        <v>442</v>
-      </c>
       <c r="P61" t="s">
         <v>442</v>
       </c>
@@ -7570,8 +7741,11 @@
       <c r="V61" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>55</v>
       </c>
@@ -7597,50 +7771,53 @@
         <f t="shared" si="1"/>
         <v>28785876</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="12">
+        <v>10</v>
+      </c>
+      <c r="J62" t="s">
         <v>247</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>325</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>2018</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>343</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>523</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>794</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>786</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>789</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>788</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>790</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>787</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>791</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>792</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>56</v>
       </c>
@@ -7666,27 +7843,27 @@
         <f t="shared" si="1"/>
         <v>24772667</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="12">
+        <v>35</v>
+      </c>
+      <c r="J63" t="s">
         <v>257</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>243</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>2013</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>352</v>
       </c>
-      <c r="M63" t="s">
-        <v>442</v>
-      </c>
       <c r="N63" t="s">
+        <v>442</v>
+      </c>
+      <c r="O63" t="s">
         <v>795</v>
       </c>
-      <c r="O63" t="s">
-        <v>442</v>
-      </c>
       <c r="P63" t="s">
         <v>442</v>
       </c>
@@ -7708,8 +7885,11 @@
       <c r="V63" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>57</v>
       </c>
@@ -7735,27 +7915,27 @@
         <f t="shared" si="1"/>
         <v>34876936</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="12">
+        <v>7</v>
+      </c>
+      <c r="J64" t="s">
         <v>258</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>296</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>2021</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>354</v>
       </c>
-      <c r="M64" t="s">
-        <v>442</v>
-      </c>
       <c r="N64" t="s">
+        <v>442</v>
+      </c>
+      <c r="O64" t="s">
         <v>796</v>
       </c>
-      <c r="O64" t="s">
-        <v>442</v>
-      </c>
       <c r="P64" t="s">
         <v>442</v>
       </c>
@@ -7777,8 +7957,11 @@
       <c r="V64" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>58</v>
       </c>
@@ -7804,50 +7987,53 @@
         <f t="shared" si="1"/>
         <v>22634083</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="12">
+        <v>276</v>
+      </c>
+      <c r="J65" t="s">
         <v>241</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>291</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>2012</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>392</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>490</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>803</v>
       </c>
-      <c r="O65" t="s">
-        <v>442</v>
-      </c>
       <c r="P65" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q65" t="s">
         <v>797</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>582</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>801</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>798</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>799</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>800</v>
       </c>
-      <c r="V65" t="s">
+      <c r="W65" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>59</v>
       </c>
@@ -7873,27 +8059,27 @@
         <f t="shared" si="1"/>
         <v>28117610</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="12">
+        <v>36</v>
+      </c>
+      <c r="J66" t="s">
         <v>241</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>291</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>2017</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>362</v>
       </c>
-      <c r="M66" t="s">
-        <v>442</v>
-      </c>
       <c r="N66" t="s">
+        <v>442</v>
+      </c>
+      <c r="O66" t="s">
         <v>804</v>
       </c>
-      <c r="O66" t="s">
-        <v>442</v>
-      </c>
       <c r="P66" t="s">
         <v>442</v>
       </c>
@@ -7915,8 +8101,11 @@
       <c r="V66" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>60</v>
       </c>
@@ -7942,53 +8131,57 @@
         <f t="shared" si="1"/>
         <v>19705875</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="12">
+        <v>281</v>
+      </c>
+      <c r="J67" t="s">
         <v>241</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>315</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>2009</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>386</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>523</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>811</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>722</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>805</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>806</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>808</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>807</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>695</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>809</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8007,8 +8200,9 @@
       <c r="G69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -8034,50 +8228,53 @@
         <f>HYPERLINK(CONCATENATE("https://pubmed.ncbi.nlm.nih.gov/", G70, "/"),G70)</f>
         <v>21701529</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="12">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s">
         <v>885</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>886</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>2011</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>816</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>412</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>840</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>655</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>835</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>833</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>836</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>834</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>837</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>838</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -8103,50 +8300,53 @@
         <f t="shared" ref="H71:H89" si="2">HYPERLINK(CONCATENATE("https://pubmed.ncbi.nlm.nih.gov/", G71, "/"),G71)</f>
         <v>35317695</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
         <v>887</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>888</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>2022</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>814</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>412</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>848</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>841</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>842</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>843</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>844</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>845</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>528</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>846</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -8172,50 +8372,53 @@
         <f t="shared" si="2"/>
         <v>16318840</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="12">
+        <v>24</v>
+      </c>
+      <c r="J72" t="s">
         <v>290</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>889</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>2005</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>817</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>412</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>857</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>849</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>851</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>852</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>854</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>850</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>853</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>855</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -8241,47 +8444,50 @@
         <f t="shared" si="2"/>
         <v>35216421</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
         <v>890</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>891</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>2022</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>820</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>490</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>865</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>858</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>859</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>860</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>861</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>862</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>863</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5</v>
       </c>
@@ -8307,50 +8513,53 @@
         <f t="shared" si="2"/>
         <v>20658346</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="12">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s">
         <v>892</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>290</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>2011</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>822</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>412</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>857</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>866</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>867</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>868</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>854</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>850</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>853</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>870</v>
       </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6</v>
       </c>
@@ -8376,50 +8585,53 @@
         <f t="shared" si="2"/>
         <v>21042560</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="12">
+        <v>113</v>
+      </c>
+      <c r="J75" t="s">
         <v>893</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>894</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>2010</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>824</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>412</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>877</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>655</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>872</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>871</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>873</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>474</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>874</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>875</v>
       </c>
-      <c r="V75" t="s">
+      <c r="W75" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7</v>
       </c>
@@ -8445,36 +8657,36 @@
         <f t="shared" si="2"/>
         <v>22937509</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="12">
+        <v>114</v>
+      </c>
+      <c r="J76" t="s">
         <v>243</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>895</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>2012</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>829</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>878</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>879</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>722</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>880</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>881</v>
       </c>
-      <c r="R76" t="s">
-        <v>442</v>
-      </c>
       <c r="S76" t="s">
         <v>442</v>
       </c>
@@ -8487,8 +8699,11 @@
       <c r="V76" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W76" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -8514,30 +8729,30 @@
         <f t="shared" si="2"/>
         <v>31363996</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="12">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
         <v>896</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>897</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2019</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>823</v>
       </c>
-      <c r="M77" t="s">
-        <v>442</v>
-      </c>
       <c r="N77" t="s">
+        <v>442</v>
+      </c>
+      <c r="O77" t="s">
         <v>783</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>655</v>
       </c>
-      <c r="P77" t="s">
-        <v>442</v>
-      </c>
       <c r="Q77" t="s">
         <v>442</v>
       </c>
@@ -8556,8 +8771,11 @@
       <c r="V77" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W77" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -8583,27 +8801,27 @@
         <f t="shared" si="2"/>
         <v>33760148</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="12">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
         <v>898</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>289</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>2021</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>819</v>
       </c>
-      <c r="M78" t="s">
-        <v>442</v>
-      </c>
       <c r="N78" t="s">
+        <v>442</v>
+      </c>
+      <c r="O78" t="s">
         <v>783</v>
       </c>
-      <c r="O78" t="s">
-        <v>442</v>
-      </c>
       <c r="P78" t="s">
         <v>442</v>
       </c>
@@ -8625,8 +8843,11 @@
       <c r="V78" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10</v>
       </c>
@@ -8652,50 +8873,53 @@
         <f t="shared" si="2"/>
         <v>28918083</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="12">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
         <v>326</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>291</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>2018</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>812</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>490</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>989</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>882</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>883</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>983</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>985</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>987</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>984</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>986</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11</v>
       </c>
@@ -8721,50 +8945,53 @@
         <f t="shared" si="2"/>
         <v>19770725</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="12">
+        <v>103</v>
+      </c>
+      <c r="J80" t="s">
         <v>287</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>242</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>2009</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>825</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>412</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>997</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>990</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>991</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>992</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>993</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>996</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>994</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>995</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>12</v>
       </c>
@@ -8790,50 +9017,53 @@
         <f t="shared" si="2"/>
         <v>26201859</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="12">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
         <v>899</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>900</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>2015</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>815</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>523</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>1003</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>999</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>1000</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>1001</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>1002</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>474</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>681</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>780</v>
       </c>
-      <c r="V81" t="s">
+      <c r="W81" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13</v>
       </c>
@@ -8859,50 +9089,53 @@
         <f t="shared" si="2"/>
         <v>22124706</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="12">
+        <v>69</v>
+      </c>
+      <c r="J82" t="s">
         <v>282</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>901</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>2012</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>826</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>412</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>1013</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>1005</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>1006</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>1008</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>1009</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>1007</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>1010</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>1011</v>
       </c>
-      <c r="V82" t="s">
+      <c r="W82" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>14</v>
       </c>
@@ -8928,50 +9161,53 @@
         <f t="shared" si="2"/>
         <v>24488530</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="12">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s">
         <v>902</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>301</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>2014</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>827</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>412</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>1021</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>1014</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>1015</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>1017</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>1018</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>1016</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>567</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>1019</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>15</v>
       </c>
@@ -8997,47 +9233,50 @@
         <f t="shared" si="2"/>
         <v>10218308</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="12">
+        <v>45</v>
+      </c>
+      <c r="J84" t="s">
         <v>903</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>904</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>1998</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>818</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>1022</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>1024</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>1023</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>1027</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>1026</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>1025</v>
       </c>
-      <c r="T84" t="s">
-        <v>442</v>
-      </c>
       <c r="U84" t="s">
         <v>442</v>
       </c>
       <c r="V84" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W84" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>16</v>
       </c>
@@ -9063,53 +9302,56 @@
         <f t="shared" si="2"/>
         <v>32071970</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="12">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
         <v>269</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>305</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>2020</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>970</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>1029</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="O85" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>767</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>768</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>769</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>771</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>770</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>766</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>772</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>519</v>
       </c>
-      <c r="W85" s="2" t="s">
+      <c r="X85" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>17</v>
       </c>
@@ -9135,50 +9377,53 @@
         <f t="shared" si="2"/>
         <v>29696386</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="12">
+        <v>23</v>
+      </c>
+      <c r="J86" t="s">
         <v>905</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>906</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>2018</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>813</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>412</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>1037</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>1030</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>1035</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>1031</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>1032</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>474</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>1033</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>1034</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>18</v>
       </c>
@@ -9204,50 +9449,53 @@
         <f t="shared" si="2"/>
         <v>34300228</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="12">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
         <v>905</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>906</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>2021</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>821</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>412</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>1041</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>1038</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>1039</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>1031</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>1032</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>474</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>1033</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>1034</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>19</v>
       </c>
@@ -9273,50 +9521,53 @@
         <f t="shared" si="2"/>
         <v>21697136</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="12">
+        <v>99</v>
+      </c>
+      <c r="J88" t="s">
         <v>907</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>291</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>2011</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>830</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>412</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>1050</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>1042</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>1043</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>1044</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>1045</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>1046</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>1047</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>1048</v>
       </c>
-      <c r="V88" t="s">
+      <c r="W88" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20</v>
       </c>
@@ -9342,50 +9593,54 @@
         <f t="shared" si="2"/>
         <v>28785876</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="12">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
         <v>247</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>325</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>2017</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>828</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>412</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>1057</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>786</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>1052</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>715</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>1053</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>1051</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>1054</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>1055</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
         <v>1056</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:BC67" xr:uid="{DE7F70BD-C5D1-8C43-9A57-26B1120BC6C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
